--- a/NEW/src/genre_relevance_final.xlsx
+++ b/NEW/src/genre_relevance_final.xlsx
@@ -576,12 +576,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>focus_classical</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>조용한 도서관에서 집중을 돕기 위해 부드럽고 인스트루멘탈한 음악을 추천합니다.</t>
+          <t>조용한 도서관에서 집중을 위한 클래식 음악은 최적의 선택입니다.</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -607,7 +607,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Ludovico Einaudi's 'Nuvole Bianche' is a popular piano piece known for its calming and soothing qualities. It's instrumental, which makes it ideal for a silent library setting where focus is desired. The recommendation reasoning aligns well with the context, as the song's tempo, energy, and acoustic properties are conducive to maintaining concentration in a quiet environment. This is a perfect choice for the given situation.</t>
+          <t>Ludovico Einaudi의 'Nuvole Bianche'는 피아노 기반의 아름다운 클래식 곡으로, 매우 잔잔하고 집중하기 좋은 분위기를 제공합니다. 잠재적으로 방해될 요소가 없는 인스트루멘탈 피스로 도서관 같은 조용한 환경에서 공부나 독서 시에 적합합니다. AI의 추천 사유와 정확히 일치하며, 차분하고 명상적인 분위기를 통해 사용자가 목표로 하는 '집중'에 완벽히 부합합니다. 이 곡은 예상된 분위기와 요구된 청각적 특성에도 완벽히 부합합니다.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Neoclassical and classical genres are often instrumental and soothing, making them suitable for a focus vibe.</t>
+          <t>The target genre 'classical' is present in the actual genres ['neoclassical', 'classical'].</t>
         </is>
       </c>
     </row>
@@ -667,29 +667,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kanye West</t>
+          <t>AC/DC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Stronger</t>
+          <t>Thunderstruck</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>energetic</t>
+          <t>active_rock</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>활기찬 운동을 위해 에너지가 높은 곡이 필요합니다.</t>
+          <t>활기찬 운동 환경에 맞춰 에너지를 북돋아 줄 수 있는 강렬한 록 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>0.9</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0.1</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M3" t="n">
         <v>140</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Kanye West의 'Stronger'는 헬스장에서의 활기찬 운동에 잘 어울리는 높은 에너지와 적절한 템포를 가진 노래입니다. 이 곡은 강력한 비트와 동기를 부여하는 가사가 특징이며, 특히 빡센 운동 루틴이나 고강도 훈련에 적합합니다. AI의 추천은 이 상황에 완벽하게 부합합니다.</t>
+          <t>AC/DC의 'Thunderstruck'은 강렬한 록 음악으로 잘 알려져 있으며, 에너지를 북돋아주는 분위기를 가진다. 높은 데시벨과 활기찬 운동 환경에 잘 맞으며, AI가 의도한 활기찬 에너지를 제공한다. 빠른 템포와 강한 비트로 인해 운동 시 동기부여를 주기에도 적절하다.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -718,27 +718,27 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0j2T0R9dR9qdJYsB7ciXhf</t>
+          <t>57bgtoPSgt236HzfBOd8kj</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0j2T0R9dR9qdJYsB7ciXhf</t>
+          <t>https://open.spotify.com/track/57bgtoPSgt236HzfBOd8kj</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Kanye West</t>
+          <t>AC/DC</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Stronger</t>
+          <t>Thunderstruck</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>['rap']</t>
+          <t>['rock', 'hard rock', 'classic rock', 'rock and roll']</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Kanye West's rap music often features energetic beats and rhythms, making it suitable for an active gym vibe.</t>
+          <t>The Target Genre 'rock' is present in the Actual Spotify Genres and is strongly related to them.</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Max Richter</t>
+          <t>Hiroshi Yoshimura</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>sleep_ambient</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>조용한 환경에서 수면을 돕기 위해 부드럽고 차분한 곡을 추천합니다.</t>
+          <t>조용한 환경에서 수면을 돕기 위한 편안하고 잔잔한 앰비언트 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -796,7 +796,7 @@
         <v>0.9</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="L4" t="n">
         <v>40</v>
@@ -809,7 +809,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Max Richter의 'Sleep'은 8시간짜리 앨범으로, 수면을 돕기 위해 만들어진 부드럽고 차분한 음악입니다. AI가 제안한 목표 특징(낮은 템포, 낮은 에너지, 높은 기악성 등)과 수면을 위한 조용한 환경에도 잘 맞아 떨어집니다. 이 추천은 해당 상황에 완벽하게 어울립니다.</t>
+          <t>Hiroshi Yoshimura의 'Green'은 앰비언트 음악의 전형으로, 차분하고 편안한 분위기를 조성하여 수면을 돕기에 이상적입니다. 조용한 환경에서 듣기에 적합하며, AI의 추천 사유 역시 상황에 논리적인 설명을 제공합니다. 기대하는 분위기와도 잘 맞아 떨어지는 선택입니다.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -819,27 +819,27 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1VsVgwPlKwbHp35a2SSnKz</t>
+          <t>7kMkCy1ieRxHbTVcne2eN5</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1VsVgwPlKwbHp35a2SSnKz</t>
+          <t>https://open.spotify.com/track/7kMkCy1ieRxHbTVcne2eN5</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Max Richter</t>
+          <t>Hiroshi Yoshimura</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>SLEEP: Tranquility Base - Single Edit</t>
+          <t>GREEN</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>['neoclassical', 'minimalism', 'classical', 'ambient']</t>
+          <t>['ambient', 'drone', 'minimalism']</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>The genres 'neoclassical', 'minimalism', 'classical', and 'ambient' are all conducive to a calm vibe, making them compatible with the intended vibe.</t>
+          <t>The Target Genre 'ambient' is present in the Actual Spotify Genres and is strongly related to 'drone' and 'minimalism', which are often associated with ambient music.</t>
         </is>
       </c>
     </row>
@@ -869,35 +869,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bill Evans</t>
+          <t>Miles Davis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Waltz for Debby</t>
+          <t>Blue in Green</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>relax</t>
+          <t>relax_jazz</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>카페에서 적당한 데시벨로 재즈 음악을 들으며 편안하게 쉴 수 있는 곡입니다.</t>
+          <t>카페의 적당한 소음 속에서 재즈 음악은 여유로운 분위기를 만들어 주어 휴식을 취하기에 좋습니다.</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>0.3</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J5" t="n">
         <v>0.9</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="L5" t="n">
         <v>60</v>
@@ -910,7 +910,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Bill Evans의 'Waltz for Debby'는 카페에서 듣기 좋은 편안한 재즈 곡으로, 느긋한 피아노 연주가 특징입니다. 추천 사유인 '카페에서 적당한 데시벨로 재즈 음악을 들으며 편안하게 쉴 수 있는 곡'에 잘 부합하며, 사용자의 재즈 선호도와도 일치합니다. 분위기를 잘 살려주는 좋은 선택입니다.</t>
+          <t>Miles Davis의 'Blue in Green'은 재즈의 전설적인 앨범 'Kind of Blue'에 수록된 곡으로, 느리고 감성적인 연주가 특징입니다. 카페와 같은 공간에서 적당한 소음 속에서 듣기 완벽한 선택입니다. 곡의 여유로운 분위기는 휴식을 돕고 카페의 음향 환경에 잘 어울립니다. 추천 사유도 합리적이며, 사용자의 재즈 취향을 고려한 적절한 추천입니다.</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -920,27 +920,27 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>7bMrdOiYdHjz5dplqSxj8r</t>
+          <t>0aWMVrwxPNYkKmFthzmpRi</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7bMrdOiYdHjz5dplqSxj8r</t>
+          <t>https://open.spotify.com/track/0aWMVrwxPNYkKmFthzmpRi</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Bill Evans</t>
+          <t>Miles Davis</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Waltz For Debby</t>
+          <t>Blue in Green (feat. John Coltrane &amp; Bill Evans)</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>['jazz', 'cool jazz', 'bebop', 'hard bop']</t>
+          <t>['jazz', 'cool jazz', 'hard bop', 'bebop', 'jazz fusion', 'free jazz', 'jazz blues']</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>The genres 'jazz' and 'cool jazz' are known for their relaxing qualities, making them compatible with the intended vibe.</t>
+          <t>The Target Genre 'jazz' is present in the Actual Spotify Genres and is strongly related to all listed subgenres of jazz.</t>
         </is>
       </c>
     </row>
@@ -975,17 +975,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>energetic</t>
+          <t>active_k-pop</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NewJeans의 음악은 활기찬 공원에서 활력을 주기에 적합한 에너지를 가지고 있습니다.</t>
+          <t>활기찬 공원에서 적당한 볼륨으로 들을 수 있는 NewJeans의 K-Pop 곡은 활동적인 분위기를 더해줄 것입니다.</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -998,20 +998,20 @@
         <v>0.1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N6" t="n">
         <v>5</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>The song 'Attention' by NewJeans is indeed a real track and matches the user's preference for K-Pop, specifically mentioning NewJeans. The song carries an upbeat and energetic vibe, which is appropriate for an active setting in a park with moderate decibels. The recommendation reasoning aligns with the target features, focusing on a lively energy with a tempo that encourages activity, making it perfect for the given context.</t>
+          <t>The song 'Hype Boy' by NewJeans is a lively K-pop track that fits well with the user's location, goal, and preferences. It has an upbeat tempo and high energy, which makes it ideal for an active environment like a park. The reasoning provided aligns well with both the song's attributes and the user's request for an active, moderate-volume experience. Overall, the recommendation is perfectly suited for the given situation.</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2pIUpMhHL6L9Z5lnKxJJr9</t>
+          <t>0a4MMyCrzT0En247IhqZbD</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2pIUpMhHL6L9Z5lnKxJJr9</t>
+          <t>https://open.spotify.com/track/0a4MMyCrzT0En247IhqZbD</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>K-pop often features energetic beats and catchy melodies, aligning well with the intended vibe of 'energetic'.</t>
+          <t>The Target Genre 'k-pop' is present in the Actual Spotify Genres.</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1071,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Joakim Karud</t>
+          <t>Jinsang</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dreams</t>
+          <t>Affection</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1086,33 +1086,33 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>조용한 환경에서 집중력을 높이기 위해 Lo-fi 장르의 편안하고 반복적인 비트를 추천합니다.</t>
+          <t>조용한 코워킹 스페이스에서 집중력을 높이기 위해 로우파이 음악이 적합합니다.</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.5</v>
       </c>
       <c r="J7" t="n">
         <v>0.9</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="L7" t="n">
         <v>60</v>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
         <v>5</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Joakim Karud's 'Dreams' is a well-known track in the Lo-fi genre. It perfectly fits the context of needing focus in a quiet co-working environment. The track's tempo and energy align well with the user's preference for calm, instrumental music that can help maintain a productive atmosphere. The recommendation's reasoning is sound, emphasizing the suitability of repetitive beats to aid concentration.</t>
+          <t>Jinsang의 'Affection'은 실제로 존재하는 로우파이 곡으로, 조용한 코워킹 공간에서 집중력을 높이는 데 적합합니다. 곡의 분위기는 부드럽고 차분하며, 가사가 없어 배경음악으로 이상적입니다. AI의 추천 사유는 사용자의 선호와 공간의 분위기에 잘 맞습니다. 특히, 음악의 템포와 에너지는 조용한 환경에서 집중력을 발휘하기에 적절합니다.</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1122,27 +1122,27 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>7lRsXfGnY0PBSxVMIxuHME</t>
+          <t>3ukklzkdKjDzqkroiXTvf4</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7lRsXfGnY0PBSxVMIxuHME</t>
+          <t>https://open.spotify.com/track/3ukklzkdKjDzqkroiXTvf4</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Joakim Karud</t>
+          <t>Jinsang</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Dreams</t>
+          <t>Affection</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>['lo-fi beats', 'jazz beats']</t>
+          <t>['lo-fi', 'lo-fi hip hop', 'lo-fi beats']</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Both 'lo-fi beats' and 'jazz beats' are conducive to a focus-oriented vibe, making them compatible with the 'focus_lofi' tag.</t>
+          <t>The Target Genre 'lofi' is strongly related to the Actual Spotify Genres, which include 'lo-fi', 'lo-fi hip hop', and 'lo-fi beats'.</t>
         </is>
       </c>
     </row>
@@ -1182,12 +1182,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>energetic</t>
+          <t>neutral_pop</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>이동 중에 큰 소리로 듣기 좋은 신나는 팝 음악을 추천합니다.</t>
+          <t>이동 중이면서 소음이 큰 환경에서는 신나는 팝 음악이 중립적인 기분을 유지하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1206,14 +1206,14 @@
         <v>120</v>
       </c>
       <c r="M8" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="N8" t="n">
         <v>5</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Dua Lipa의 'Don't Start Now'는 신나는 비트와 활기찬 에너지를 가진 곡으로, 이동 중에 큰 소리로 들을 때 좋은 선택입니다. 완벽하게 팝 전반의 요소를 잘 갖추고 있으며, AI가 제시한 템포, 에너지, 발랄함은 해당 곡 특징에 잘 맞습니다. 트렌디한 팝으로서 빌보드 차트의 히트곡이기도 하여, 이동 중 듣기 좋은 선택입니다.</t>
+          <t>'Dua Lipa - Don't Start Now'는 신나는 팝 음악으로, 빠른 비트(124 BPM)와 높은 에너지(0.8)를 자랑하며, 벨런스가 긍정적(0.7)으로 이동 중 소음이 큰 환경에서도 중립적인 기분을 유지하기 적합합니다. 또한, Billboard 히트곡으로 트렌디한 느낌을 제공하며, 추천 사유가 논리적입니다. 이동 중인 상황과 'Pop' 선호도에 어울리는 최고의 선택입니다.</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Pop music is often energetic and aligns well with the intended vibe.</t>
+          <t>The Target Genre 'pop' is present in the Actual Spotify Genres.</t>
         </is>
       </c>
     </row>
@@ -1283,38 +1283,38 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>consolation</t>
+          <t>consolation_k-pop</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>위로가 필요한 조용한 환경에서 감성적인 발라드를 통해 마음을 달래줄 수 있는 곡으로, IU의 음악은 감정 표현이 뛰어나기 때문에 적합합니다.</t>
+          <t>조용한 환경에서 위로받고 싶은 마음을 담아 IU의 발라드 곡을 추천합니다.</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.3</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.5</v>
-      </c>
       <c r="J9" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="L9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>5</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>IU의 'Through the Night'는 조용하고 감성적인 발라드로, 슬픈 감정과 위로의 정서를 훌륭하게 표현하는 곡입니다. 사용자의 요구사항인 IU의 발라드를 충족시키며, 조용한 환경에서 위로를 받기 위한 완벽한 선택입니다. AI가 제시한 타겟 특징도 곡의 분위기와 잘 맞습니다.</t>
+          <t>IU's 'Through the Night' is a well-known emotional ballad with a slow tempo, perfectly fitting for a quiet, home setting where consolation is sought. The song's soothing melody and heartfelt lyrics align well with the user's preference for IU's ballads and meet the target features, making it an ideal recommendation. The recommendation's reasoning is logical and matches the expected vibe, making it a perfect choice for the situation.</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>K-ballad is known for its emotional and soothing qualities, which align well with the vibe of consolation.</t>
+          <t>The Target Genre 'k-pop' is present in the Actual Spotify Genres.</t>
         </is>
       </c>
     </row>
@@ -1374,48 +1374,48 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Animals as Leaders</t>
+          <t>Metallica</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CAFO</t>
+          <t>Nothing Else Matters</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>instrumental metal</t>
+          <t>focus_metal</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>조용한 분위기에서도 집중을 유지할 수 있도록 인스트루멘탈 메탈을 추천합니다.</t>
+          <t>도서관에서 집중을 유지하기 위해 소음이 적고 에너지가 낮은 헤비 메탈 곡을 추천합니다.</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L10" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M10" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Animals as Leaders의 'CAFO'는 존재하는 곡이며, 이 밴드는 인스트루멘탈 프로그레시브 메탈로 유명합니다. 추천 사유에서 언급한 것처럼 이 노래는 보컬 없이 복잡한 기타 리프로 이루어져 있어, 조용한 도서관에서 집중력을 유지하는 데 도움이 될 수 있습니다. 특히 인트루멘탈 메탈을 선호하는 사용자에게 적합한 선택입니다. 다만, 'CAFO'는 매우 빠르고 에너지가 높은 곡으로, 'calm guitar'이나 'ambient metal'의 분위기보다는 다소 복잡하고 강렬할 수 있습니다. 이러한 특성 때문에 완벽하게 'calm'한 분위기는 아닐 수도 있지만, 사용자 취향과 잘 맞는다는 점에서 높은 점수를 줄 수 있습니다.</t>
+          <t>Metallica의 'Nothing Else Matters'는 헤비 메탈 밴드의 곡이지만, 일반적으로 비교적 낮은 에너지와 소음을 가진 곡으로 잘 알려져 있습니다. 따라서 도서관과 같은 조용한 환경에서 배경 음악으로 활용하기에 적합합니다. 특히 곡의 서정적이며 부드러운 기타 연주는 사용자가 집중할 수 있도록 도와줍니다. AI의 추천 사유 역시 에너지가 낮고 소음이 적은 헤비 메탈 곡을 찾는다는 측면에서 적절하게 매칭됩니다.</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1425,27 +1425,27 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1ZfnGTUnha3QHj3KFmub0W</t>
+          <t>6QAsrXPnMSXIbV0yEJHlEX</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1ZfnGTUnha3QHj3KFmub0W</t>
+          <t>https://open.spotify.com/track/6QAsrXPnMSXIbV0yEJHlEX</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Animals As Leaders</t>
+          <t>Metallica</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Cafo</t>
+          <t>Nothing Else Matters - Remastered 2021</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>['djent', 'progressive metal', 'math rock', 'progressive rock', 'metal']</t>
+          <t>['metal', 'thrash metal', 'rock', 'heavy metal', 'hard rock']</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>The genres 'djent' and 'progressive metal' align well with the instrumental metal vibe, as they often feature complex instrumentation and a focus on melody.</t>
+          <t>The Target Genre 'metal' is present in the Actual Spotify Genres and is strongly related to genres like 'thrash metal' and 'heavy metal'.</t>
         </is>
       </c>
     </row>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Symphony No.7 in A, Op.92 - II. Allegretto</t>
+          <t>Symphony No.9 in D Minor, Op.125 - 'Choral': IV. Presto - Allegro assai</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>energetic</t>
+          <t>active_classical</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>고전 음악 중에서도 에너제틱한 느낌을 주는 오케스트라 곡은 활기찬 운동 분위기에 잘 맞습니다.</t>
+          <t>사용자가 운동 중이므로 활기차면서도 클래식한 느낌의 음악이 필요합니다.</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.6</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1506,17 +1506,17 @@
         <v>0.3</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Ludwig van Beethoven's Symphony No.7 in A, Op.92 - II. Allegretto is a well-known classical piece that is often described as having a rhythmic and energetic flow, making it a popular choice for its driving momentum. However, the second movement, Allegretto, is not particularly fast-paced or high-energy as the user expects for a gym setting focused on active, loud, and energetic music. It has more of a reflective and moderate pace, which might not fully match the target features for a high-energy, fast-tempo, and loud gym environment. Therefore, while the selection is not bad, it may not be the best fit for the desired active and loud workout mood.</t>
+          <t>Beethoven's Symphony No.9, particularly the final movement ('Ode to Joy'), is a highly energetic and uplifting piece that fits the user's requirements perfectly. Although it is classical, it possesses a vigorous and powerful orchestral arrangement that can be motivational in a gym setting. The tempo and energy suited for a workout is present, and the loud decibel level in the gym would complement the grandeur of the symphony. It aligns with the user's preference for classical music while maintaining an epic and cinematic quality that matches the goal of being active.</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>6tVcdMbDua1aAop9Ex93pr</t>
+          <t>4FXl8rYY8TdewKu7ZNeBXP</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6tVcdMbDua1aAop9Ex93pr</t>
+          <t>https://open.spotify.com/track/4FXl8rYY8TdewKu7ZNeBXP</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Beethoven: Symphony No. 7 in A Major, Op. 92: II. Allegretto</t>
+          <t>Symphony No. 9 in D Minor, Op. 125 "Choral": IVa-b. Presto – Allegro assai</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>The genres 'classical', 'classical piano', and 'chamber music' are generally not energetic and are more suited for relaxation or contemplation.</t>
+          <t>The Target Genre 'classical' is present in the Actual Spotify Genres.</t>
         </is>
       </c>
     </row>
@@ -1581,30 +1581,30 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Apparently</t>
+          <t>4 Your Eyez Only</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>sleep_hip-hop</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>조용한 환경에서 수면을 위해 부드러운 힙합 곡을 추천합니다.</t>
+          <t>조용한 환경에서 힙합 음악으로 편안한 수면을 돕기 위해 부드러운 리듬과 낮은 에너지를 가진 곡을 추천합니다.</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.4</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>0.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.3</v>
       </c>
       <c r="L12" t="n">
         <v>60</v>
@@ -1613,11 +1613,11 @@
         <v>80</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>J. Cole's 'Apparently' is a real song and features a more relaxed and mellow hip-hop vibe, which can be suitable for a quiet and calm environment at home. However, it includes a significant amount of rap and has more emotional intensity and lyrical depth than a typical lo-fi hip hop or chill beats track. The tempo and energy levels are slightly higher than the traditional features of sleep-inducing music, which typically minimizes lyrical content and instrumental complexity. While it is a softer track within the hip-hop genre compared to more upbeat songs, it may not fully align with the expected vibe of chill beats or instrumental hip hop aimed specifically at aiding sleep.</t>
+          <t>J. Cole의 '4 Your Eyez Only'는 힙합 장르에 속하며, 서정적이고 느린 리듬을 특징으로 합니다. 이는 조용한 환경에서 수면을 위해 부드러운 힙합을 찾는 사용자에게 적합한 선택일 수 있습니다. 그러나 곡은 랩이 포함되어 있어 완전히 'lo-fi 힙합, 칠 비트, 슬로우 잼(랩 없음)'의 기대 분위기와 일치하지 않습니다. 따라서 이상적인 추천은 아니나, 목표에 근접한 베스트 초이스 중 하나입니다.</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>5O59s7bCgTFsXDXlWecyQ1</t>
+          <t>1vvnYpYEMVB4aq9I6tHIEB</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5O59s7bCgTFsXDXlWecyQ1</t>
+          <t>https://open.spotify.com/track/1vvnYpYEMVB4aq9I6tHIEB</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Apparently</t>
+          <t>4 Your Eyez Only</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1652,12 +1652,12 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Rap is generally more energetic and not typically associated with a calm vibe.</t>
+          <t>The target genre 'hip-hop' is strongly related to the actual genre 'rap'.</t>
         </is>
       </c>
     </row>
@@ -1682,43 +1682,43 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Spring Day</t>
+          <t>Save Me</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>focus_k-pop</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>조용한 환경에서 집중하기 위해 에너지가 높지 않은 K-Pop 댄스 곡을 추천합니다.</t>
+          <t>조용한 환경에서 집중력을 높이기 위해 부드럽고 리드미컬한 K-Pop 댄스 음악이 적합합니다.</t>
         </is>
       </c>
       <c r="H13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.5</v>
       </c>
       <c r="J13" t="n">
         <v>0.1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L13" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="M13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>BTS의 'Spring Day'는 감성적이고 서정적인 발라드 곡으로, 조용한 환경에서 집중할 수 있는 배경음악으로는 나쁘지 않지만, 'Dance' 카테고리에 정확히 부합하지는 않습니다. 에너지가 높지 않아 조용한 공간에서의 집중에 적합할 수 있지만, 사용자가 'K-Pop (Dance)'를 선호한다고 명시한 것에 비해 'Spring Day'는 기대와 다를 수 있습니다. AI의 추천은 에너지가 높지 않은 K-Pop을 대상으로 하더라도, 조금 더 고전적인 댄스곡 선택이 좋았을 것입니다.</t>
+          <t>BTS의 'Save Me'는 빠른 템포와 강한 에너지를 가진 K-Pop 댄스 음악으로, 조용한 환경에서의 집중에 적합한 편은 아닙니다. AI의 설명과는 달리 이 곡은 리드미컬하지만 부드럽기보다는 다소 강한 비트와 보컬이 특징입니다. 따라서, 부드럽고 리드미컬한 배경 음악을 제공하는 데에는 다소 부적합할 수 있습니다. 그러나 BTS의 인지도를 고려하면 좋아하는 사람들 입장에서는 집중을 돕는 배경 음악이 될 수도 있지만, 일반적으로 추천된 목표와 어울리진 않습니다.</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2j1fFjWHCI9KJSwcuYAOyF</t>
+          <t>7bxGcILuAjkZzaveU28ZJS</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2j1fFjWHCI9KJSwcuYAOyF</t>
+          <t>https://open.spotify.com/track/7bxGcILuAjkZzaveU28ZJS</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Spring Day</t>
+          <t>Save Me</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1753,12 +1753,12 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>K-pop is generally upbeat and energetic, which may not align with a focus vibe.</t>
+          <t>The Target Genre 'k-pop' is present in the Actual Spotify Genres ['k-pop'].</t>
         </is>
       </c>
     </row>
@@ -1788,38 +1788,38 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>chill</t>
+          <t>relax_electronic</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>카페에서 적당한 소음 속에 EDM으로 편안함을 느낄 수 있는 곡을 추천합니다.</t>
+          <t>카페에서 적당한 소음 속에 편안하게 EDM을 즐길 수 있는 곡입니다.</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.5</v>
       </c>
       <c r="J14" t="n">
         <v>0.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>ODESZA의 'A Moment Apart'는 실제로 존재하는 곡으로, 체면적인 EDM 장르에서 분위기 있는 트랙입니다. 카페에서 적당한 소음과 함께 들을 수 있는 편안한 EDM 음악으로 잘 어울립니다. 추천 사유 또한 사용자에게 적합하게 느껴집니다. 다만, ODESZA의 곡이 딱 EDM으로 분류되기보다는 감성적이고 서정적인 느낌이 강해, 일부 EDM 팬들에게는 다소 편안하게 느껴질 수 있습니다. 그러나 상황에는 잘 어울리는 선택입니다.</t>
+          <t>ODESZA의 'A Moment Apart'는 실제로 존재하는 곡이며, EDM의 다른 하위 장르 중에서도 chillout, downtempo 계열로 분류됩니다. 이 곡은 편안하면서도 약간의 리듬감을 주고 적정한 에너지를 지닌 트랙으로, 카페에서의 레벨소음에 맞춰 이선되고, 편안함을 청중에게 제공합니다. 추천 사유 역시 '카페에서 적당한 소음 속에 편안하게 EDM을 즐길 수 있는 곡'이라는 설명과 잘 맞아떨어집니다. 주어진 조건에서 기대하는 해변의 느낌, chill house 등의 분위기를 잘 충족시킵니다.</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Both 'chillwave' and 'chillstep' are genres that promote a relaxed and chill atmosphere, aligning well with the intended vibe.</t>
+          <t>The genres 'chillwave' and 'chillstep' are subgenres of electronic music, making them strongly related to the target genre 'electronic'.</t>
         </is>
       </c>
     </row>
@@ -1879,48 +1879,48 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Foo Fighters</t>
+          <t>Coldplay</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Times Like These</t>
+          <t>Fix You</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>emotional_rock</t>
+          <t>consolation_rock</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>이 곡은 록 장르의 감성적인 멜로디와 가사가 위로의 메시지를 담고 있어 공원에서의 적당한 소음 속에서 듣기에 적합합니다.</t>
+          <t>공원에서 적당한 소음 속에서 위로를 얻고자 하는 당신의 상황에 맞춰, 감성적인 멜로디와 가사가 돋보이는 록 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L15" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M15" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="N15" t="n">
         <v>5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Foo Fighters의 'Times Like These'는 록 장르의 곡으로, 감성적이며 위로와 희망의 메시지를 담고 있습니다. 공원에서의 적당한 소음 속에서도 이 곡의 멜로디와 가사가 잘 어울리며, 사용자가 선호하는 록 장르에도 잘 맞는 선택입니다. AI의 추천 사유도 논리적이며, 상황과 사용자 선호에 부합합니다.</t>
+          <t>Coldplay의 'Fix You'는 록 음악의 범주에 들며, 감성적인 멜로디와 위로가 되는 가사로 유명합니다. 공원에서 적당한 소음 속에서도 잘 어울리는 분위기의 곡으로, 위로를 얻고자 하는 상황에 잘 맞습니다. 추천 사유 또한 논리적이며, AI가 제시한 목표 특성과 기대 분위기에도 잘 부합합니다.</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1930,37 +1930,37 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>67vYdAAM3oGsEImCRfbtsF</t>
+          <t>7LVHVU3tWfcxj5aiPFEW4Q</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/67vYdAAM3oGsEImCRfbtsF</t>
+          <t>https://open.spotify.com/track/7LVHVU3tWfcxj5aiPFEW4Q</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Foo Fighters</t>
+          <t>Coldplay</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Times Like These</t>
+          <t>Fix You</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>['rock', 'post-grunge', 'alternative rock', 'grunge']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>The genres 'rock', 'post-grunge', 'alternative rock', and 'grunge' align well with the emotional and expressive qualities of 'emotional_rock'.</t>
+          <t>No genre data on Spotify</t>
         </is>
       </c>
     </row>
@@ -1980,48 +1980,48 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ludovico Einaudi</t>
+          <t>Ludwig van Beethoven</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nuvole Bianche</t>
+          <t>Piano Sonata No. 14 in C-Sharp Minor, Op. 27 No. 2 'Moonlight': I. Adagio sostenuto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>focus_classical</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>지하철의 소음을 차단하면서 클래식 음악으로 집중을 도와줄 곡을 선택했습니다.</t>
+          <t>지하철의 시끄러운 환경에서도 집중할 수 있도록, 클래식 장르의 곡을 추천합니다.</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="L16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M16" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>'Ludovico Einaudi - Nuvole Bianche' is a beautiful and calming piece of classical music, known for its gentle piano solo and soothing atmosphere. It fits the user's preference for classical music and can help focus by masking subway noise to some extent. However, it does not feature a cello solo or deep organ, which could have provided better noise masking with a richer, deeper sound. Overall, it is a good choice but not perfectly aligned with the expected vibe.</t>
+          <t>Ludwig van Beethoven's 'Piano Sonata No. 14 in C-Sharp Minor, Op. 27 No. 2 'Moonlight': I. Adagio sostenuto' is indeed a classical piece known for its calm and soothing melody, making it suitable for focusing. However, in a very loud subway environment, its soft and delicate nature may not effectively mask the noise, potentially requiring noise-canceling headphones to appreciate fully. The expected vibe mentions 'cello solo, deep organ, steady rhythm,' which the Moonlight Sonata does not align with. The recommendation is decent due to the user's preference for classical music, but it might not be the best choice for noise masking in such a setting.</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2031,27 +2031,27 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3weNRklVDqb4Rr5MhKBR3D</t>
+          <t>1MdXeHC3wHldtPQKayAM7q</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3weNRklVDqb4Rr5MhKBR3D</t>
+          <t>https://open.spotify.com/track/1MdXeHC3wHldtPQKayAM7q</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Ludovico Einaudi</t>
+          <t>Ludwig van Beethoven</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Nuvole Bianche</t>
+          <t>Beethoven: Piano Sonata No. 14 in C-Sharp Minor, Op. 27 No. 2 "Moonlight": I. Adagio sostenuto</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>['neoclassical', 'classical']</t>
+          <t>['classical', 'classical piano', 'chamber music']</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Neoclassical and classical genres are conducive to focus and concentration, making them suitable for a subway environment.</t>
+          <t>The Target Genre 'classical' is present in the Actual Spotify Genres.</t>
         </is>
       </c>
     </row>
@@ -2081,22 +2081,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rage Against the Machine</t>
+          <t>Linkin Park</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Killing In The Name</t>
+          <t>Given Up</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>anger</t>
+          <t>anger_rock</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>사용자가 집에서 적당한 소음으로 분노를 표출하고 싶어 하므로, 강렬한 에너지를 가지면서도 중간 정도의 템포를 가진 록 음악이 적합합니다.</t>
+          <t>화가 난 기분을 해소하기 위해 강렬한 에너지를 가진 록 음악은 적합합니다.</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2106,23 +2106,23 @@
         <v>0.3</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0.1</v>
       </c>
       <c r="L17" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="M17" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="N17" t="n">
         <v>5</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Rage Against the Machine의 'Killing In The Name'는 강렬한 에너지를 가지고 있으며, 록 음악 중에서도 분노를 표출할 수 있는 곡으로 잘 알려져 있습니다. 이 노래는 펑크 록과 하드 록의 요소를 결합하여 공격적인 에너지를 전달하며, 집에서 적당한 소음 수준으로 듣기에 적합합니다. 특히 스트레스 해소와 분노 표출에 적절한 선택이라 할 수 있습니다. AI의 추천 사유와 상황 모두 논리적이고 적절하여 높은 점수를 줍니다.</t>
+          <t>Linkin Park의 'Given Up'은 강렬한 에너지를 가진 록 음악으로, 화가 난 기분을 해소하기에 적합한 선택이다. 이 곡은 빠른 템포와 높은 에너지를 가지며, 예상 분위기인 그런지, 펑크 록, 하드 록의 요소가 잘 드러나 있다.</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2132,27 +2132,27 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>59WN2psjkt1tyaxjspN8fp</t>
+          <t>1fLlRApgzxWweF1JTf8yM5</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/59WN2psjkt1tyaxjspN8fp</t>
+          <t>https://open.spotify.com/track/1fLlRApgzxWweF1JTf8yM5</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Rage Against The Machine</t>
+          <t>Linkin Park</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Killing In The Name</t>
+          <t>Given Up</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>['rap metal', 'rap rock', 'alternative metal', 'nu metal']</t>
+          <t>['nu metal', 'rap metal', 'rock', 'alternative metal']</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>The genres 'rap metal', 'rap rock', 'alternative metal', and 'nu metal' are all aggressive and intense, aligning well with the vibe of 'anger'.</t>
+          <t>The Target Genre 'rock' is present in the Actual Spotify Genres and is strongly related to 'alternative metal', which is a subgenre of rock.</t>
         </is>
       </c>
     </row>
@@ -2187,30 +2187,30 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Symphony No.5 in C minor, Op.67: I. Allegro con brio</t>
+          <t>Symphony No. 5 in C Minor, Op. 67: I. Allegro con brio</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>intense</t>
+          <t>anger_classical</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>베토벤의 교향곡 5번은 강렬한 감정과 에너지를 전달하며 분노를 해소하는 데 도움이 됩니다.</t>
+          <t>클래식 장르의 음악은 감정을 정리하고 진정시키는 데 도움을 줄 수 있으며, 'Anger' 목표에 맞춰 중간 정도의 에너지를 가진 곡을 추천합니다.</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="L18" t="n">
         <v>100</v>
@@ -2219,11 +2219,11 @@
         <v>110</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>베토벤의 교향곡 5번 첫 번째 악장은 강렬하고 드라마틱한 오프닝으로 널리 알려져 있으며, 에너지가 넘치고 집중적인 감정을 전달합니다. 사용자의 목적이 분노를 증가시키려는 것이고, 선호하는 음악 스타일도 클래식인 상황에 매우 적합합니다. AI의 추천 사유도 논리적이며 상황에 잘 맞습니다.</t>
+          <t>Beethoven's Symphony No. 5 in C Minor, Op. 67, particularly the first movement 'Allegro con brio,' is indeed a dramatic and intense classical piece. It aligns with the user's preference for classical music. The piece has a powerful and assertive quality, which could amplify feelings of anger rather than soothing them. While its energy and tempo fit the target features for intensity, it may not be the best choice if the goal is to calm anger. Thus, while the song is appropriate for its intensity and dramatic feel, it might not perfectly match the intended goal of managing anger.</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Beethoven's classical music, especially his intense compositions, can evoke strong emotions, including anger.</t>
+          <t>The Target Genre 'classical' is present in the Actual Spotify Genres.</t>
         </is>
       </c>
     </row>
@@ -2293,19 +2293,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>energetic</t>
+          <t>active_hip-hop</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>활동적인 상태에서 힙합의 강렬한 비트가 잘 어울리며, 이동 중에도 에너지를 유지할 수 있습니다.</t>
+          <t>움직이는 동안 활력을 주기 위해 에너지가 높은 힙합 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2314,17 +2314,17 @@
         <v>0.1</v>
       </c>
       <c r="L19" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N19" t="n">
         <v>5</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Kanye West의 'Power'는 강렬한 비트와 에너제틱한 리듬을 가진 힙합 곡으로, 이동 중이면서도 활발한 상태를 유지하기에 적합하다. 특히, 힙합 팬이라면 큰 소음 속에서도 이 곡을 즐기며 에너지 충전이 가능하다. 추천 사유 또한 사용자의 활동적이고 에너제틱한 상황에 잘 맞아 떨어진다.</t>
+          <t>Kanye West의 'Power'는 높은 에너지와 힘찬 비트로 이동 중 활력을 유지하기에 적합한 곡입니다. 곡의 속도와 에너지는 사용자의 요구에 부합하며, 활기차고 강력한 힙합 곡으로서 기대되는 분위기에 정확히 들어맞습니다. 또한 사용자가 선호하는 힙합 장르와도 일치합니다. 추천 사유도 논리적이며 상황에 잘 맞습니다.</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Kanye West's rap music often has an energetic vibe, making it compatible with the intended vibe.</t>
+          <t>The target genre 'hip-hop' is strongly related to the actual genre 'rap', as both are closely connected and often overlap in style and culture.</t>
         </is>
       </c>
     </row>
@@ -2384,48 +2384,48 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Phoebe Bridgers</t>
+          <t>Mac DeMarco</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Salad Days</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>indie</t>
+          <t>neutral_indie</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>카페에서 적당한 소음 속에서 들을 수 있는 중립적인 분위기의 인디 음악을 추천합니다.</t>
+          <t>카페에서 적당한 볼륨으로 들을 수 있는 인디 음악은 편안한 분위기를 만들어줍니다.</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I20" t="n">
         <v>0.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L20" t="n">
         <v>100</v>
       </c>
       <c r="M20" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Phoebe Bridgers' 'Kyoto' is a well-known indie song that fits comfortably in a cafe setting. The song matches the tempo and energy levels that are suitable for a moderate noise level and offers a neutral vibe. While 'Kyoto' does have an upbeat and slightly melancholic tone, which slightly deviates from a purely neutral mood, it still aligns well with the expected indie pop vibe and calm afternoon feel. Overall, it's a strong recommendation given the user's preference.</t>
+          <t>Mac DeMarco의 'Salad Days'는 실제로 존재하는 음악이며, 인디 장르에서 널리 사랑받고 있습니다. 이 곡은 편안하고 여유로운 분위기의 인디 팝 음악으로, 카페에서 중간 볼륨으로 듣기에 적합합니다. 추천 사유 역시 카페의 편안한 분위기에 어울리는 인디 음악 선택으로 논리적입니다.</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2435,37 +2435,37 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4vjvx7Zxkb4AltGcZ0BBvI</t>
+          <t>5VdaMUzoQetwxQwtWAd022</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4vjvx7Zxkb4AltGcZ0BBvI</t>
+          <t>https://open.spotify.com/track/5VdaMUzoQetwxQwtWAd022</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Phoebe Bridgers</t>
+          <t>Mac DeMarco</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Salad Days</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['indie', 'lo-fi indie']</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>No genre data on Spotify</t>
+          <t>The Target Genre 'indie' is present in the Actual Spotify Genres, which include 'indie' and 'lo-fi indie', indicating a strong relation.</t>
         </is>
       </c>
     </row>
@@ -2485,48 +2485,48 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The Minimalists</t>
+          <t>Brian Eno</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Podcast #001</t>
+          <t>Ambient 1: Music for Airports</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>focus_ambient</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>조용한 도서관 환경에서 집중을 돕기 위해, 잔잔하고 말소리가 주를 이루는 팟캐스트 형식의 곡을 추천합니다.</t>
+          <t>조용한 도서관 환경에서 집중력을 높이기 위해 차분한 톡 기반 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L21" t="n">
         <v>60</v>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>The AI recommendation of 'The Minimalists - Podcast #001' aligns well with the user's context of being in a silent library environment and needing to focus. While it's technically a podcast and not a traditional song, it meets the user's preference for talk-based audio. The reasoning is logical because the podcast style can indeed be calming and conducive to concentration. However, it could potentially interrupt deep focus with too much talking, which drops the suitability slightly below perfect.</t>
+          <t>Brian Eno의 'Ambient 1: Music for Airports'는 실존하는 앨범이며 매우 차분하고 조용한 분위기의 앰비언트 음악입니다. 도서관 같은 조용한 환경에서 집중력을 높이기에는 적합한 선택입니다. 하지만 사용자 취향에 'Podcast (Talk)'라고 명시되어 있어, 앰비언트 음악 대신 실제로 토크가 포함된 팟캐스트와 더 어울릴 수도 있습니다. 따라서 추천 사유가 취향과 약간 맞지 않다는 점에서 완벽한 5점은 아닙니다.</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">

--- a/NEW/src/genre_relevance_final.xlsx
+++ b/NEW/src/genre_relevance_final.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>조용한 도서관에서 집중을 위한 클래식 음악은 최적의 선택입니다.</t>
+          <t>조용한 도서관에서 집중하기 위해 클래식 음악이 가장 적합합니다.</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -591,10 +591,10 @@
         <v>0.3</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="L2" t="n">
         <v>60</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Ludovico Einaudi의 'Nuvole Bianche'는 피아노 기반의 아름다운 클래식 곡으로, 매우 잔잔하고 집중하기 좋은 분위기를 제공합니다. 잠재적으로 방해될 요소가 없는 인스트루멘탈 피스로 도서관 같은 조용한 환경에서 공부나 독서 시에 적합합니다. AI의 추천 사유와 정확히 일치하며, 차분하고 명상적인 분위기를 통해 사용자가 목표로 하는 '집중'에 완벽히 부합합니다. 이 곡은 예상된 분위기와 요구된 청각적 특성에도 완벽히 부합합니다.</t>
+          <t>Ludovico Einaudi의 'Nuvole Bianche'는 피아노 중심의 잔잔한 곡으로, 도서관과 같은 조용한 환경에서의 집중을 위해 매우 적합합니다. 클래식 음악은 일반적으로 집중력을 높이는 데 도움을 줄 수 있으며, 이 곡은 특히 고요하고 차분한 분위기를 제공해 도서관에서의 공부나 작업에 최적입니다. AI의 추천 사유와 타겟 기능 역시 이와 잘 부합합니다.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>The target genre 'classical' is present in the actual genres ['neoclassical', 'classical'].</t>
+          <t>The Target Genre 'classical' is present in the Actual Spotify Genres.</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>활기찬 운동 환경에 맞춰 에너지를 북돋아 줄 수 있는 강렬한 록 음악을 추천합니다.</t>
+          <t>헬스장에서 활기차게 운동할 수 있도록 신나는 록 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>AC/DC의 'Thunderstruck'은 강렬한 록 음악으로 잘 알려져 있으며, 에너지를 북돋아주는 분위기를 가진다. 높은 데시벨과 활기찬 운동 환경에 잘 맞으며, AI가 의도한 활기찬 에너지를 제공한다. 빠른 템포와 강한 비트로 인해 운동 시 동기부여를 주기에도 적절하다.</t>
+          <t>AC/DC의 'Thunderstruck'은 매우 에너제틱한 록 음악으로, 특히 헬스장에서 운동할 때 듣기 좋은 곡입니다. 곡의 빠른 템포와 강력한 기타 리프는 운동 동기 부여에 큰 도움이 되며, AI가 제시한 타겟 피쳐들과 잘 맞아떨어집니다. 따라서 이 노래는 사용자가 원하는 'workout remix', 'gym motivation', 'high tempo' 분위기에 적합합니다. 추천 사유도 상황에 잘 부합합니다.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hiroshi Yoshimura</t>
+          <t>Max Richter</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Dream 3 (In the Midst of My Life)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>조용한 환경에서 수면을 돕기 위한 편안하고 잔잔한 앰비언트 음악을 추천합니다.</t>
+          <t>조용한 환경에서 편안하게 잠들 수 있도록 부드럽고 잔잔한 곡을 추천합니다.</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -796,7 +796,7 @@
         <v>0.9</v>
       </c>
       <c r="K4" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="L4" t="n">
         <v>40</v>
@@ -809,7 +809,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Hiroshi Yoshimura의 'Green'은 앰비언트 음악의 전형으로, 차분하고 편안한 분위기를 조성하여 수면을 돕기에 이상적입니다. 조용한 환경에서 듣기에 적합하며, AI의 추천 사유 역시 상황에 논리적인 설명을 제공합니다. 기대하는 분위기와도 잘 맞아 떨어지는 선택입니다.</t>
+          <t>Max Richter의 'Dream 3 (In the Midst of My Life)'는 실제로 존재하는 곡이며, 클래식과 앰비언트 음악을 결합한 편안하고 잔잔한 분위기를 가지고 있습니다. 조용한 환경에서 잠들기 위해 완벽한 선택이며, AI의 추천 사유와 음악의 특성이 예상 분위기와 잘 맞아떨어집니다. 또한, 음악의 낮은 템포와 연주 중심의 구성은 사용자의 수면 목표에 이상적입니다.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -819,27 +819,27 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>7kMkCy1ieRxHbTVcne2eN5</t>
+          <t>1fetTbR2on5hKEE8K9oelC</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7kMkCy1ieRxHbTVcne2eN5</t>
+          <t>https://open.spotify.com/track/1fetTbR2on5hKEE8K9oelC</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Hiroshi Yoshimura</t>
+          <t>Max Richter</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>GREEN</t>
+          <t>Dream 3 (in the midst of my life)</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>['ambient', 'drone', 'minimalism']</t>
+          <t>['neoclassical', 'minimalism', 'classical', 'ambient']</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>The Target Genre 'ambient' is present in the Actual Spotify Genres and is strongly related to 'drone' and 'minimalism', which are often associated with ambient music.</t>
+          <t>The target genre 'ambient' is present in the actual Spotify genres.</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blue in Green</t>
+          <t>So What</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>카페의 적당한 소음 속에서 재즈 음악은 여유로운 분위기를 만들어 주어 휴식을 취하기에 좋습니다.</t>
+          <t>카페에서 적당한 소음 속에서 편안한 재즈 음악이 휴식을 도와줄 것입니다.</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Miles Davis의 'Blue in Green'은 재즈의 전설적인 앨범 'Kind of Blue'에 수록된 곡으로, 느리고 감성적인 연주가 특징입니다. 카페와 같은 공간에서 적당한 소음 속에서 듣기 완벽한 선택입니다. 곡의 여유로운 분위기는 휴식을 돕고 카페의 음향 환경에 잘 어울립니다. 추천 사유도 합리적이며, 사용자의 재즈 취향을 고려한 적절한 추천입니다.</t>
+          <t>Miles Davis의 'So What'은 쿨 재즈의 대표곡으로, 중저음의 느긋한 템포와 적절한 악기 구성이 있어 카페의 조용한 분위기를 잘 살려낸다. 카페에서의 적당한 소음 속에서 편안함과 휴식을 제공하기에 이상적이다. AI의 타겟 피처도 곡의 특성과 잘 맞아떨어지며, 사용자의 재즈 선호도를 충족시킨다. 따라서 이 추천은 상황에 완벽히 어울린다.</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0aWMVrwxPNYkKmFthzmpRi</t>
+          <t>4vLYewWIvqHfKtJDk8c8tq</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0aWMVrwxPNYkKmFthzmpRi</t>
+          <t>https://open.spotify.com/track/4vLYewWIvqHfKtJDk8c8tq</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Blue in Green (feat. John Coltrane &amp; Bill Evans)</t>
+          <t>So What (feat. John Coltrane, Cannonball Adderley &amp; Bill Evans)</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>활기찬 공원에서 적당한 볼륨으로 들을 수 있는 NewJeans의 K-Pop 곡은 활동적인 분위기를 더해줄 것입니다.</t>
+          <t>공원에서 적당한 소음 속에서 활발한 기운을 돋우기 위해 NewJeans의 K-Pop 곡을 추천합니다.</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>The song 'Hype Boy' by NewJeans is a lively K-pop track that fits well with the user's location, goal, and preferences. It has an upbeat tempo and high energy, which makes it ideal for an active environment like a park. The reasoning provided aligns well with both the song's attributes and the user's request for an active, moderate-volume experience. Overall, the recommendation is perfectly suited for the given situation.</t>
+          <t>NewJeans의 'Hype Boy'는 K-Pop 장르의 밝고 활기찬 곡으로, 공원에서 활발한 기운을 돋우기에 적합하다. 곡의 템포, 에너지, 명랑한 분위기가 요구되는 환경과 잘 어울리며, 사용자 취향과도 일치한다. 적당한 소음 속에서 즐길 수 있는 신나는 곡으로 추천 사유 또한 논리적이다.</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jinsang</t>
+          <t>Lo-fi Beats</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Affection</t>
+          <t>Chill Study Beats</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1086,33 +1086,33 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>조용한 코워킹 스페이스에서 집중력을 높이기 위해 로우파이 음악이 적합합니다.</t>
+          <t>조용한 공동 작업 공간에서 집중하기 위해 적합한 로파이 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J7" t="n">
         <v>0.9</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="L7" t="n">
         <v>60</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>5</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Jinsang의 'Affection'은 실제로 존재하는 로우파이 곡으로, 조용한 코워킹 공간에서 집중력을 높이는 데 적합합니다. 곡의 분위기는 부드럽고 차분하며, 가사가 없어 배경음악으로 이상적입니다. AI의 추천 사유는 사용자의 선호와 공간의 분위기에 잘 맞습니다. 특히, 음악의 템포와 에너지는 조용한 환경에서 집중력을 발휘하기에 적절합니다.</t>
+          <t>Lo-fi Beats - Chill Study Beats 는 실제로 존재하는 플레이리스트로, 로파이 음악의 대표적인 예입니다. 조용한 공동 작업 공간에서 집중하기에 적합한 분위기를 제공하며, 노래의 템포, 에너지, 악기 사용 등이 설정한 목표에 부합합니다. 로파이 음악은 보통 낮은 백그라운드 노이즈와 부드러운 멜로디를 갖추고 있어, 사용자가 힘들지 않고 집중력을 유지하며 작업할 수 있도록 돕습니다. 따라서 이 추천은 상황에 매우 적합합니다.</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1122,27 +1122,27 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3ukklzkdKjDzqkroiXTvf4</t>
+          <t>7f54dUuxIgvTCIo1NIVcrV</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3ukklzkdKjDzqkroiXTvf4</t>
+          <t>https://open.spotify.com/track/7f54dUuxIgvTCIo1NIVcrV</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Jinsang</t>
+          <t>Derrol</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Affection</t>
+          <t>Chill Study Relax</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>['lo-fi', 'lo-fi hip hop', 'lo-fi beats']</t>
+          <t>['lo-fi']</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>The Target Genre 'lofi' is strongly related to the Actual Spotify Genres, which include 'lo-fi', 'lo-fi hip hop', and 'lo-fi beats'.</t>
+          <t>The Target Genre 'lofi' is strongly related to the Actual Genre 'lo-fi'.</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Don't Start Now</t>
+          <t>Levitating</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>이동 중이면서 소음이 큰 환경에서는 신나는 팝 음악이 중립적인 기분을 유지하는 데 도움이 됩니다.</t>
+          <t>이동 중에 듣기 좋고 기분을 가볍게 해줄 수 있는 신나는 Pop 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1203,17 +1203,17 @@
         <v>0.1</v>
       </c>
       <c r="L8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="N8" t="n">
         <v>5</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>'Dua Lipa - Don't Start Now'는 신나는 팝 음악으로, 빠른 비트(124 BPM)와 높은 에너지(0.8)를 자랑하며, 벨런스가 긍정적(0.7)으로 이동 중 소음이 큰 환경에서도 중립적인 기분을 유지하기 적합합니다. 또한, Billboard 히트곡으로 트렌디한 느낌을 제공하며, 추천 사유가 논리적입니다. 이동 중인 상황과 'Pop' 선호도에 어울리는 최고의 선택입니다.</t>
+          <t>'Dua Lipa - Levitating' is a popular and upbeat pop song that fits well with the user's preference for Pop music, especially in a loud environment like when moving. The song has a tempo that fits within the specified range and has high energy, making it an excellent choice for creating a lively, trendy vibe while on the move. The reasoning provided aligns well with the user's context and intention.</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3PfIrDoz19wz7qK7tYeu62</t>
+          <t>5nujrmhLynf4yMoMtj8AQF</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3PfIrDoz19wz7qK7tYeu62</t>
+          <t>https://open.spotify.com/track/5nujrmhLynf4yMoMtj8AQF</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Don't Start Now</t>
+          <t>Levitating (feat. DaBaby)</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>조용한 환경에서 위로받고 싶은 마음을 담아 IU의 발라드 곡을 추천합니다.</t>
+          <t>조용한 환경에서 위로가 되는 발라드 곡으로, IU의 감성을 느낄 수 있는 곡을 추천합니다.</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K9" t="n">
         <v>0.7</v>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>IU's 'Through the Night' is a well-known emotional ballad with a slow tempo, perfectly fitting for a quiet, home setting where consolation is sought. The song's soothing melody and heartfelt lyrics align well with the user's preference for IU's ballads and meet the target features, making it an ideal recommendation. The recommendation's reasoning is logical and matches the expected vibe, making it a perfect choice for the situation.</t>
+          <t>IU의 'Through the Night'는 조용하고 감성적인 발라드로, 집에서 위로를 받고자 하는 상황에 잘 어울립니다. 이 곡은 슬로우 템포와 섬세한 감성으로 청자의 마음을 어루만져 줄 수 있으며, AI의 추천 사유도 작곡과 분위기에 적합한 설명입니다. 사용자 선호인 발라드 장르이기에 최적의 선택입니다.</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1389,33 +1389,33 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>도서관에서 집중을 유지하기 위해 소음이 적고 에너지가 낮은 헤비 메탈 곡을 추천합니다.</t>
+          <t>조용한 환경에서 집중하기 위해서는 에너지는 높지만 소음이 적은 메탈 음악이 적합합니다.</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Metallica의 'Nothing Else Matters'는 헤비 메탈 밴드의 곡이지만, 일반적으로 비교적 낮은 에너지와 소음을 가진 곡으로 잘 알려져 있습니다. 따라서 도서관과 같은 조용한 환경에서 배경 음악으로 활용하기에 적합합니다. 특히 곡의 서정적이며 부드러운 기타 연주는 사용자가 집중할 수 있도록 도와줍니다. AI의 추천 사유 역시 에너지가 낮고 소음이 적은 헤비 메탈 곡을 찾는다는 측면에서 적절하게 매칭됩니다.</t>
+          <t>Metallica의 'Nothing Else Matters'는 메탈 밴드의 곡이지만 비교적 느리고 감성적인 발라드에 가깝습니다. 조용한 환경에서의 집중에 도움이 될 수 있으나, 일반적으로 침묵을 유지해야 하는 도서관에서는 여전히 부적합할 수 있습니다. 메탈을 선호하는 사용자에게 감성적인 메탈을 제안한 것은 아이디얼하지는 않지만 나쁘지도 않습니다. 하지만 'post-rock', 'instrumental rock', 'ambient metal'과 같은 특정한 분위기에는 완벽히 맞지 않으며, 인스트루멘탈이 아닌 곡입니다.</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Symphony No.9 in D Minor, Op.125 - 'Choral': IV. Presto - Allegro assai</t>
+          <t>Symphony No. 5 in C Minor, Op. 67: I. Allegro con brio</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>사용자가 운동 중이므로 활기차면서도 클래식한 느낌의 음악이 필요합니다.</t>
+          <t>고전적인 분위기이면서도 에너지가 넘치는 클래식 곡을 통해 운동 시 활력을 줄 수 있습니다.</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1500,23 +1500,23 @@
         <v>0.7</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M11" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="N11" t="n">
         <v>5</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Beethoven's Symphony No.9, particularly the final movement ('Ode to Joy'), is a highly energetic and uplifting piece that fits the user's requirements perfectly. Although it is classical, it possesses a vigorous and powerful orchestral arrangement that can be motivational in a gym setting. The tempo and energy suited for a workout is present, and the loud decibel level in the gym would complement the grandeur of the symphony. It aligns with the user's preference for classical music while maintaining an epic and cinematic quality that matches the goal of being active.</t>
+          <t>Ludwig van Beethoven's Symphony No. 5, particularly the first movement 'Allegro con brio,' is a well-known classical piece that fits perfectly in a high-energy context. The piece is recognized for its vigorous and powerful motifs and is often associated with a sense of urgency and triumph, which can be highly motivating in a gym setting. The tempo and energy make it suitable for active environments, and although it's classical, it has an epic and somewhat cinematic feel that matches well with the user's preference for classical music in a loud environment. The AI's reasoning is sound, as the piece provides the necessary energy and vigor for an active workout session.</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>4FXl8rYY8TdewKu7ZNeBXP</t>
+          <t>2ygeBLTP9uu3OW3VTulD8N</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4FXl8rYY8TdewKu7ZNeBXP</t>
+          <t>https://open.spotify.com/track/2ygeBLTP9uu3OW3VTulD8N</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Symphony No. 9 in D Minor, Op. 125 "Choral": IVa-b. Presto – Allegro assai</t>
+          <t>Symphony No. 5 in C Minor, Op. 67: I. Allegro con brio</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4 Your Eyez Only</t>
+          <t>Apparently</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1591,20 +1591,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>조용한 환경에서 힙합 음악으로 편안한 수면을 돕기 위해 부드러운 리듬과 낮은 에너지를 가진 곡을 추천합니다.</t>
+          <t>조용한 환경에서 힙합의 부드러운 비트를 통해 편안한 수면을 도울 수 있는 곡입니다.</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.2</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.4</v>
-      </c>
       <c r="K12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L12" t="n">
         <v>60</v>
@@ -1613,11 +1613,11 @@
         <v>80</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>J. Cole의 '4 Your Eyez Only'는 힙합 장르에 속하며, 서정적이고 느린 리듬을 특징으로 합니다. 이는 조용한 환경에서 수면을 위해 부드러운 힙합을 찾는 사용자에게 적합한 선택일 수 있습니다. 그러나 곡은 랩이 포함되어 있어 완전히 'lo-fi 힙합, 칠 비트, 슬로우 잼(랩 없음)'의 기대 분위기와 일치하지 않습니다. 따라서 이상적인 추천은 아니나, 목표에 근접한 베스트 초이스 중 하나입니다.</t>
+          <t>J. Cole - Apparently is a real song and has a melodic and soulful beat, which could be relaxing in a quiet home setting. However, the song features rap vocals, which might not align with the expected vibe of 'no rap' for sleep. The reasoning about using a soft hip-hop beat for sleeping makes sense, but the presence of vocals may disrupt the intended relaxing ambiance. A fully instrumental or more ambient hip-hop track might be a better fit.</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1vvnYpYEMVB4aq9I6tHIEB</t>
+          <t>5O59s7bCgTFsXDXlWecyQ1</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1vvnYpYEMVB4aq9I6tHIEB</t>
+          <t>https://open.spotify.com/track/5O59s7bCgTFsXDXlWecyQ1</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>4 Your Eyez Only</t>
+          <t>Apparently</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>The target genre 'hip-hop' is strongly related to the actual genre 'rap'.</t>
+          <t>The target genre 'hip-hop' is strongly related to the actual genre 'rap', as both are closely connected within the broader hip-hop culture.</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Save Me</t>
+          <t>Euphoria</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1692,23 +1692,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>조용한 환경에서 집중력을 높이기 위해 부드럽고 리드미컬한 K-Pop 댄스 음악이 적합합니다.</t>
+          <t>조용한 공동 작업 공간에서 집중하기 위해, 에너지가 높지 않고 인스트루멘탈 성향이 있는 K-Pop 댄스 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I13" t="n">
         <v>0.6</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M13" t="n">
         <v>120</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>BTS의 'Save Me'는 빠른 템포와 강한 에너지를 가진 K-Pop 댄스 음악으로, 조용한 환경에서의 집중에 적합한 편은 아닙니다. AI의 설명과는 달리 이 곡은 리드미컬하지만 부드럽기보다는 다소 강한 비트와 보컬이 특징입니다. 따라서, 부드럽고 리드미컬한 배경 음악을 제공하는 데에는 다소 부적합할 수 있습니다. 그러나 BTS의 인지도를 고려하면 좋아하는 사람들 입장에서는 집중을 돕는 배경 음악이 될 수도 있지만, 일반적으로 추천된 목표와 어울리진 않습니다.</t>
+          <t>BTS의 'Euphoria'는 아름다운 멜로디와 진정성 있는 보컬로 잘 알려져 있지만, 이 곡은 에너지가 비교적 높고, 보컬이 두드러져 있으며, 완전히 인스트루멘탈 성향의 곡은 아닙니다. 따라서 조용한 공간에서 집중하고자 할 때의 백그라운드 음악으로는 다소 부적합할 수 있습니다. AI의 타겟 피처 설정은 맞지만, 완벽하게 들어맞지 않는 선택입니다. 'Euphoria' 대신 더 잔잔한 피아노 커버나 인스트루멘탈 버전을 추천하는 것이 더 적절할 것입니다.</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>7bxGcILuAjkZzaveU28ZJS</t>
+          <t>5YMXGBD6vcYP7IolemyLtK</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7bxGcILuAjkZzaveU28ZJS</t>
+          <t>https://open.spotify.com/track/5YMXGBD6vcYP7IolemyLtK</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Save Me</t>
+          <t>Euphoria</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>The Target Genre 'k-pop' is present in the Actual Spotify Genres ['k-pop'].</t>
+          <t>The Target Genre 'k-pop' is present in the Actual Spotify Genres.</t>
         </is>
       </c>
     </row>
@@ -1793,33 +1793,33 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>카페에서 적당한 소음 속에 편안하게 EDM을 즐길 수 있는 곡입니다.</t>
+          <t>카페에서 ED를 즐기며 편안하게 시간을 보낼 수 있는 곡을 추천합니다.</t>
         </is>
       </c>
       <c r="H14" t="n">
         <v>0.5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.2</v>
       </c>
       <c r="L14" t="n">
+        <v>90</v>
+      </c>
+      <c r="M14" t="n">
         <v>110</v>
-      </c>
-      <c r="M14" t="n">
-        <v>130</v>
       </c>
       <c r="N14" t="n">
         <v>5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>ODESZA의 'A Moment Apart'는 실제로 존재하는 곡이며, EDM의 다른 하위 장르 중에서도 chillout, downtempo 계열로 분류됩니다. 이 곡은 편안하면서도 약간의 리듬감을 주고 적정한 에너지를 지닌 트랙으로, 카페에서의 레벨소음에 맞춰 이선되고, 편안함을 청중에게 제공합니다. 추천 사유 역시 '카페에서 적당한 소음 속에 편안하게 EDM을 즐길 수 있는 곡'이라는 설명과 잘 맞아떨어집니다. 주어진 조건에서 기대하는 해변의 느낌, chill house 등의 분위기를 잘 충족시킵니다.</t>
+          <t>ODESZA - A Moment Apart는 실제로 존재하는 곡이며, 카페에서의 중간 데시벨 환경에 잘 맞는 편안한 EDM 곡입니다. 이 곡은 고유의 차분한 분위기와 함께 듣기 편한 멜로디를 가지고 있어 휴식을 취하기 좋은 조용한 EDM 경험을 제공합니다. 추천 사유 또한 사용자가 선호하는 EDM을 즐기기 위한 적합한 선택으로 보입니다. 따라서, 이 추천은 완벽하게 상황에 부합합니다.</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>The genres 'chillwave' and 'chillstep' are subgenres of electronic music, making them strongly related to the target genre 'electronic'.</t>
+          <t>The genres 'chillwave' and 'chillstep' are subgenres or closely related to electronic music, fitting the target genre 'electronic'.</t>
         </is>
       </c>
     </row>
@@ -1879,12 +1879,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Coldplay</t>
+          <t>Foo Fighters</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fix You</t>
+          <t>Times Like These</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1894,33 +1894,33 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>공원에서 적당한 소음 속에서 위로를 얻고자 하는 당신의 상황에 맞춰, 감성적인 멜로디와 가사가 돋보이는 록 음악을 추천합니다.</t>
+          <t>공원에서 적당한 소음 속에 위로가 되는 록 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.5</v>
       </c>
-      <c r="I15" t="n">
-        <v>0.4</v>
-      </c>
       <c r="J15" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L15" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M15" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
         <v>5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Coldplay의 'Fix You'는 록 음악의 범주에 들며, 감성적인 멜로디와 위로가 되는 가사로 유명합니다. 공원에서 적당한 소음 속에서도 잘 어울리는 분위기의 곡으로, 위로를 얻고자 하는 상황에 잘 맞습니다. 추천 사유 또한 논리적이며, AI가 제시한 목표 특성과 기대 분위기에도 잘 부합합니다.</t>
+          <t>The song 'Times Like These' by Foo Fighters is a well-known rock track fitting the user's preference for rock music. It has a moderate tempo and energy, which makes it suitable for a park setting with moderate decibel levels. The song's themes of reflection and perseverance offer a sense of consolation, aligning perfectly with the user's goal. Additionally, it carries a warm and uplifting vibe, which matches the expected soft rock or modern rock ballad style. The recommendation is both logical and well-suited to the situation.</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1930,37 +1930,37 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>7LVHVU3tWfcxj5aiPFEW4Q</t>
+          <t>67vYdAAM3oGsEImCRfbtsF</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7LVHVU3tWfcxj5aiPFEW4Q</t>
+          <t>https://open.spotify.com/track/67vYdAAM3oGsEImCRfbtsF</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Coldplay</t>
+          <t>Foo Fighters</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Fix You</t>
+          <t>Times Like These</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rock', 'post-grunge', 'alternative rock', 'grunge']</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>No genre data on Spotify</t>
+          <t>The Target Genre 'rock' is present in the Actual Spotify Genres and is strongly related to the other genres listed.</t>
         </is>
       </c>
     </row>
@@ -1980,12 +1980,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ludwig van Beethoven</t>
+          <t>Johann Sebastian Bach</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Piano Sonata No. 14 in C-Sharp Minor, Op. 27 No. 2 'Moonlight': I. Adagio sostenuto</t>
+          <t>Goldberg Variations, BWV 988: Aria</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1995,33 +1995,33 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>지하철의 시끄러운 환경에서도 집중할 수 있도록, 클래식 장르의 곡을 추천합니다.</t>
+          <t>지하철의 소음 속에서도 집중하기 위해 클래식 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="L16" t="n">
         <v>50</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Ludwig van Beethoven's 'Piano Sonata No. 14 in C-Sharp Minor, Op. 27 No. 2 'Moonlight': I. Adagio sostenuto' is indeed a classical piece known for its calm and soothing melody, making it suitable for focusing. However, in a very loud subway environment, its soft and delicate nature may not effectively mask the noise, potentially requiring noise-canceling headphones to appreciate fully. The expected vibe mentions 'cello solo, deep organ, steady rhythm,' which the Moonlight Sonata does not align with. The recommendation is decent due to the user's preference for classical music, but it might not be the best choice for noise masking in such a setting.</t>
+          <t>Goldberg Variations, BWV 988: Aria by Johann Sebastian Bach is a classical piece known for its soothing and steady rhythm, which can help with concentration, even in noisy environments like a subway. The acoustic features such as low tempo and energy match the intended target features and user preference for classical music. However, the actual vibe created by the piece leans more towards piano solos than cello or organ, which might have been more effective in masking loud subway noise.</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2031,27 +2031,27 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1MdXeHC3wHldtPQKayAM7q</t>
+          <t>1KKUKCe7NHds9EocazrFaY</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1MdXeHC3wHldtPQKayAM7q</t>
+          <t>https://open.spotify.com/track/1KKUKCe7NHds9EocazrFaY</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Ludwig van Beethoven</t>
+          <t>Johann Sebastian Bach</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Beethoven: Piano Sonata No. 14 in C-Sharp Minor, Op. 27 No. 2 "Moonlight": I. Adagio sostenuto</t>
+          <t>Goldberg Variations, BWV 988: Aria</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>['classical', 'classical piano', 'chamber music']</t>
+          <t>['classical', 'classical piano']</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>The Target Genre 'classical' is present in the Actual Spotify Genres.</t>
+          <t>The Target Genre 'classical' is present in the Actual Spotify Genres ['classical', 'classical piano'].</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Linkin Park</t>
+          <t>Rage Against The Machine</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Given Up</t>
+          <t>Killing In The Name</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>화가 난 기분을 해소하기 위해 강렬한 에너지를 가진 록 음악은 적합합니다.</t>
+          <t>분노를 해소하기 위해 에너지 넘치는 록 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2106,23 +2106,23 @@
         <v>0.3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K17" t="n">
         <v>0.1</v>
       </c>
       <c r="L17" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
         <v>5</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Linkin Park의 'Given Up'은 강렬한 에너지를 가진 록 음악으로, 화가 난 기분을 해소하기에 적합한 선택이다. 이 곡은 빠른 템포와 높은 에너지를 가지며, 예상 분위기인 그런지, 펑크 록, 하드 록의 요소가 잘 드러나 있다.</t>
+          <t>Rage Against The Machine의 'Killing In The Name'은 분노를 해소하기에 적합한 강렬한 록 음악입니다. 이 곡은 강력한 에너지를 지니고 있으며 유저가 선호하는 록 장르에 완벽히 부합합니다. 추천 사유도 분노 해소에 초점을 맞추고 있어 논리적입니다. 해당 노래는 분노를 표출하고 스트레스를 해소할 수 있는 파워풀한 분위기를 제공합니다.</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2132,27 +2132,27 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1fLlRApgzxWweF1JTf8yM5</t>
+          <t>59WN2psjkt1tyaxjspN8fp</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1fLlRApgzxWweF1JTf8yM5</t>
+          <t>https://open.spotify.com/track/59WN2psjkt1tyaxjspN8fp</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Linkin Park</t>
+          <t>Rage Against The Machine</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Given Up</t>
+          <t>Killing In The Name</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>['nu metal', 'rap metal', 'rock', 'alternative metal']</t>
+          <t>['rap metal', 'rap rock', 'alternative metal', 'nu metal']</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>The Target Genre 'rock' is present in the Actual Spotify Genres and is strongly related to 'alternative metal', which is a subgenre of rock.</t>
+          <t>The Actual Spotify Genres such as 'rap rock' and 'alternative metal' are subgenres or closely related to rock, which supports the Target Genre 'rock'.</t>
         </is>
       </c>
     </row>
@@ -2182,12 +2182,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ludwig van Beethoven</t>
+          <t>Giuseppe Verdi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Symphony No. 5 in C Minor, Op. 67: I. Allegro con brio</t>
+          <t>Dies Irae</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2197,33 +2197,33 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>클래식 장르의 음악은 감정을 정리하고 진정시키는 데 도움을 줄 수 있으며, 'Anger' 목표에 맞춰 중간 정도의 에너지를 가진 곡을 추천합니다.</t>
+          <t>클래식 음악은 감정을 진정시키고 균형을 잡아주는데 효과적이며, 'Dies Irae'는 강렬한 감정을 표현하여 분노를 해소하는데 도움을 줄 수 있습니다.</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K18" t="n">
         <v>0.8</v>
       </c>
       <c r="L18" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="M18" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Beethoven's Symphony No. 5 in C Minor, Op. 67, particularly the first movement 'Allegro con brio,' is indeed a dramatic and intense classical piece. It aligns with the user's preference for classical music. The piece has a powerful and assertive quality, which could amplify feelings of anger rather than soothing them. While its energy and tempo fit the target features for intensity, it may not be the best choice if the goal is to calm anger. Thus, while the song is appropriate for its intensity and dramatic feel, it might not perfectly match the intended goal of managing anger.</t>
+          <t>Giuseppe Verdi의 'Dies Irae'는 사실 베르디의 레퀴엠 중 일부로, 매우 강렬하고 드라마틱한 클래식 음악이다. 이는 분노와 같은 강한 감정을 해소하는데 적합할 수 있다. 특히 감정적으로 풍부하고 저음이 강한 음향이 있어 분노를 느끼는 상황에 적절한 선택일 수 있다. 그러나 'Dies Irae'는 템포가 느리기 보다는 빠른 편이라 AI의 target features와 완전히 일치하지는 않는다. 그럼에도 클래식 선호도를 고려했을 때 이 정도면 적절한 추천이다.</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2233,27 +2233,27 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2ygeBLTP9uu3OW3VTulD8N</t>
+          <t>3By9jCy6b4dv5XnlhvIWwx</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2ygeBLTP9uu3OW3VTulD8N</t>
+          <t>https://open.spotify.com/track/3By9jCy6b4dv5XnlhvIWwx</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Ludwig van Beethoven</t>
+          <t>Giuseppe Verdi</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Symphony No. 5 in C Minor, Op. 67: I. Allegro con brio</t>
+          <t>Dies Irae</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>['classical', 'classical piano', 'chamber music']</t>
+          <t>['opera', 'classical']</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>The Target Genre 'classical' is present in the Actual Spotify Genres.</t>
+          <t>The target genre 'classical' is present in the actual genres, which include 'classical' and 'opera'.</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Stronger</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2298,14 +2298,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>움직이는 동안 활력을 주기 위해 에너지가 높은 힙합 음악을 추천합니다.</t>
+          <t>사용자가 이동 중에 활기찬 기분을 느낄 수 있도록 에너지가 넘치는 힙합 곡을 추천합니다.</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2314,17 +2314,17 @@
         <v>0.1</v>
       </c>
       <c r="L19" t="n">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="M19" t="n">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="N19" t="n">
         <v>5</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Kanye West의 'Power'는 높은 에너지와 힘찬 비트로 이동 중 활력을 유지하기에 적합한 곡입니다. 곡의 속도와 에너지는 사용자의 요구에 부합하며, 활기차고 강력한 힙합 곡으로서 기대되는 분위기에 정확히 들어맞습니다. 또한 사용자가 선호하는 힙합 장르와도 일치합니다. 추천 사유도 논리적이며 상황에 잘 맞습니다.</t>
+          <t>Kanye West의 'Stronger'는 강렬한 비트와 에너지가 넘치는 곡으로, 사용자가 이동 중 활기차고 역동적인 기분을 느낄 수 있는 힙합 곡에 잘 어울립니다. BPM도 빠르고 에너제틱하며, 릴로케이션과 높은 소리 설정에서 적합한 선택입니다. AI의 추천 사유도 논리적입니다.</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2gZUPNdnz5Y45eiGxpHGSc</t>
+          <t>0j2T0R9dR9qdJYsB7ciXhf</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2gZUPNdnz5Y45eiGxpHGSc</t>
+          <t>https://open.spotify.com/track/0j2T0R9dR9qdJYsB7ciXhf</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>POWER</t>
+          <t>Stronger</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>The target genre 'hip-hop' is strongly related to the actual genre 'rap', as both are closely connected and often overlap in style and culture.</t>
+          <t>The target genre 'hip-hop' is strongly related to the actual genre 'rap', as both are closely connected within the broader hip-hop culture.</t>
         </is>
       </c>
     </row>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mac DeMarco</t>
+          <t>Bon Iver</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Salad Days</t>
+          <t>Holocene</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2399,33 +2399,33 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>카페에서 적당한 볼륨으로 들을 수 있는 인디 음악은 편안한 분위기를 만들어줍니다.</t>
+          <t>카페의 적당한 소음 속에서 중립적인 분위기를 유지하기 위해 인디 장르의 편안한 곡을 추천합니다.</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I20" t="n">
         <v>0.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="L20" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N20" t="n">
         <v>5</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Mac DeMarco의 'Salad Days'는 실제로 존재하는 음악이며, 인디 장르에서 널리 사랑받고 있습니다. 이 곡은 편안하고 여유로운 분위기의 인디 팝 음악으로, 카페에서 중간 볼륨으로 듣기에 적합합니다. 추천 사유 역시 카페의 편안한 분위기에 어울리는 인디 음악 선택으로 논리적입니다.</t>
+          <t>Bon Iver's 'Holocene' is a well-known indie song that fits perfectly with the user's preference for indie music. The song has a calm and acoustic vibe, making it ideal for a cafe setting with moderate noise levels. Its tempo and energy align well with a neutral, relaxed cafe atmosphere, as reflected in the AI's target features. The reasoning and choice are logical and appropriate for maintaining a tranquil and easy-listening environment.</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2435,37 +2435,37 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5VdaMUzoQetwxQwtWAd022</t>
+          <t>35KiiILklye1JRRctaLUb4</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5VdaMUzoQetwxQwtWAd022</t>
+          <t>https://open.spotify.com/track/35KiiILklye1JRRctaLUb4</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Mac DeMarco</t>
+          <t>Bon Iver</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Salad Days</t>
+          <t>Holocene</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>['indie', 'lo-fi indie']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>The Target Genre 'indie' is present in the Actual Spotify Genres, which include 'indie' and 'lo-fi indie', indicating a strong relation.</t>
+          <t>No genre data on Spotify</t>
         </is>
       </c>
     </row>
@@ -2485,22 +2485,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Brian Eno</t>
+          <t>Miles Davis</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ambient 1: Music for Airports</t>
+          <t>Blue in Green</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>focus_ambient</t>
+          <t>focus_jazz</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>조용한 도서관 환경에서 집중력을 높이기 위해 차분한 톡 기반 음악을 추천합니다.</t>
+          <t>조용한 도서관 환경에서 집중하기에 적합한 재즈 장르의 음악을 추천합니다.</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2519,32 +2519,56 @@
         <v>60</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Brian Eno의 'Ambient 1: Music for Airports'는 실존하는 앨범이며 매우 차분하고 조용한 분위기의 앰비언트 음악입니다. 도서관 같은 조용한 환경에서 집중력을 높이기에는 적합한 선택입니다. 하지만 사용자 취향에 'Podcast (Talk)'라고 명시되어 있어, 앰비언트 음악 대신 실제로 토크가 포함된 팟캐스트와 더 어울릴 수도 있습니다. 따라서 추천 사유가 취향과 약간 맞지 않다는 점에서 완벽한 5점은 아닙니다.</t>
+          <t>Miles Davis - Blue in Green는 실제로 존재하는 곡이다. 이 곡은 조용하고 부드러운 재즈 음악으로, 도서관에서 집중하기에 적합한 분위기를 제공한다. 그러나 사용자가 기본적으로 팟캐스트(토크)를 선호한다고 명시했는데, 이는 무시되었다. 음악 자체는 상황에 잘 맞지만, 사용자 선호도를 고려한다면 더 나은 선택이 있을 수 있다.</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0aWMVrwxPNYkKmFthzmpRi</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/0aWMVrwxPNYkKmFthzmpRi</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Miles Davis</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Blue in Green (feat. John Coltrane &amp; Bill Evans)</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>['jazz', 'cool jazz', 'hard bop', 'bebop', 'jazz fusion', 'free jazz', 'jazz blues']</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>SKIPPED</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>The Target Genre 'jazz' is present in the Actual Spotify Genres and is strongly related to all listed subgenres.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
